--- a/outputs-HGR-r202/test-p__Verrucomicrobiota_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-p__Verrucomicrobiota_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Row</t>
   </si>
@@ -22,6 +22,9 @@
     <t>even_MAG-GUT10359.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT11036.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT19408.fa</t>
   </si>
   <si>
@@ -31,7 +34,16 @@
     <t>even_MAG-GUT31872.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT51766.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT58707.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61749.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT62393.fa</t>
   </si>
   <si>
     <t>1-c__Kiritimatiellae</t>
@@ -91,7 +103,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -106,16 +118,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
@@ -140,16 +152,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2201936825208799e-14</v>
+        <v>2.2204563144992415e-14</v>
       </c>
       <c r="C3">
-        <v>0.78209092023132765</v>
+        <v>2.3339434043981899e-06</v>
       </c>
       <c r="D3">
-        <v>0.21790907976865023</v>
+        <v>0.99999766605657336</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -157,16 +169,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2204068375655944e-14</v>
+        <v>2.2201936825208799e-14</v>
       </c>
       <c r="C4">
-        <v>8.7898934047368223e-05</v>
+        <v>0.78209092023132765</v>
       </c>
       <c r="D4">
-        <v>0.99991210106593031</v>
+        <v>0.21790907976865023</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -174,16 +186,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.2202755812108051e-14</v>
+        <v>2.2204068375655944e-14</v>
       </c>
       <c r="C5">
-        <v>0.70550499496892827</v>
+        <v>8.7898934047368223e-05</v>
       </c>
       <c r="D5">
-        <v>0.29449500503104953</v>
+        <v>0.99991210106593031</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -191,15 +203,83 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <v>2.2202755812108051e-14</v>
+      </c>
+      <c r="C6">
+        <v>0.70550499496892827</v>
+      </c>
+      <c r="D6">
+        <v>0.29449500503104953</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.2204562660194582e-14</v>
+      </c>
+      <c r="C7">
+        <v>7.8793942026895611e-07</v>
+      </c>
+      <c r="D7">
+        <v>0.99999921206055753</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>2.2204478489557568e-14</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>1.9731599487956443e-06</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>0.99999802684002903</v>
       </c>
-      <c r="E6">
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.2204528463419423e-14</v>
+      </c>
+      <c r="C9">
+        <v>2.6114071826307131e-06</v>
+      </c>
+      <c r="D9">
+        <v>0.99999738859279519</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2.2204528435206356e-14</v>
+      </c>
+      <c r="C10">
+        <v>2.6074599757771381e-06</v>
+      </c>
+      <c r="D10">
+        <v>0.99999739254000208</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
